--- a/RACE_CAPSTONE_PROJECT1/TradingAnalytics_Capstone1_Metrics .xlsx
+++ b/RACE_CAPSTONE_PROJECT1/TradingAnalytics_Capstone1_Metrics .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553CFFA5-8C03-469C-93EE-E3F65F22EBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C93F27-54AC-4E27-9EB2-17532AB09A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="115">
   <si>
     <t>SMA20</t>
   </si>
@@ -253,10 +253,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">33.44
-</t>
-  </si>
-  <si>
     <t>PCA LSTM Moving Averages Model</t>
   </si>
   <si>
@@ -266,9 +262,6 @@
     <t>MAPE&lt;=0.33</t>
   </si>
   <si>
-    <t>YES-33.40</t>
-  </si>
-  <si>
     <t>NO-9.71</t>
   </si>
   <si>
@@ -279,13 +272,6 @@
   </si>
   <si>
     <t>NO-7.75</t>
-  </si>
-  <si>
-    <t>YES-33.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES-33.44
-</t>
   </si>
   <si>
     <t>YES-4.366</t>
@@ -377,6 +363,17 @@
   </si>
   <si>
     <t>Median Absolute Error FOR TEST DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES-0.33
+</t>
+  </si>
+  <si>
+    <t>YES-0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33
+</t>
   </si>
 </sst>
 </file>
@@ -552,14 +549,14 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1280,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:C16"/>
     </sheetView>
   </sheetViews>
@@ -1508,7 +1505,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>49</v>
@@ -1640,7 +1637,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1670,7 +1667,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>49</v>
@@ -1681,7 +1678,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C2" s="5">
         <v>2.0339999999999998</v>
@@ -1696,7 +1693,7 @@
         <v>1.1439999999999999</v>
       </c>
       <c r="G2" s="3">
-        <v>0.22700000000000001</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
@@ -1704,7 +1701,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C3" s="5">
         <v>7.5549999999999997</v>
@@ -1727,7 +1724,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C4" s="5">
         <v>7.5540000000000003</v>
@@ -1750,7 +1747,7 @@
         <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C5" s="5">
         <v>5.423</v>
@@ -1779,7 +1776,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1809,7 +1806,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>49</v>
@@ -1820,7 +1817,7 @@
         <v>63</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C2" s="5">
         <v>3.26</v>
@@ -1835,7 +1832,7 @@
         <v>2.1</v>
       </c>
       <c r="G2" s="3">
-        <v>0.38300000000000001</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
@@ -1843,7 +1840,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C3" s="5">
         <v>3.218</v>
@@ -1866,7 +1863,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C4" s="5">
         <v>2.4470000000000001</v>
@@ -1889,7 +1886,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C5" s="5">
         <v>3.2530000000000001</v>
@@ -1918,7 +1915,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1948,7 +1945,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>49</v>
@@ -1959,7 +1956,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C2" s="5">
         <v>4.3659999999999997</v>
@@ -1974,15 +1971,15 @@
         <v>3.597</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C3" s="5">
         <v>7.7530000000000001</v>
@@ -1997,7 +1994,7 @@
         <v>5.9889999999999999</v>
       </c>
       <c r="G3" s="5">
-        <v>33.470999999999997</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2005,7 +2002,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C4" s="5">
         <v>9.7050000000000001</v>
@@ -2020,7 +2017,7 @@
         <v>8.2040000000000006</v>
       </c>
       <c r="G4" s="5">
-        <v>33.401000000000003</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
@@ -2028,7 +2025,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C5" s="5">
         <v>2.59</v>
@@ -2056,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2076,10 +2073,10 @@
         <v>11</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2087,13 +2084,13 @@
         <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2101,13 +2098,13 @@
         <v>69</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2115,13 +2112,13 @@
         <v>67</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>93</v>
+        <v>109</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2129,13 +2126,13 @@
         <v>72</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>96</v>
+        <v>108</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2143,13 +2140,13 @@
         <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2157,13 +2154,13 @@
         <v>64</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2174,10 +2171,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2185,13 +2182,13 @@
         <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2199,13 +2196,13 @@
         <v>65</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>99</v>
+        <v>83</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2213,41 +2210,41 @@
         <v>70</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2255,13 +2252,13 @@
         <v>71</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
